--- a/data/trans_dic/P2A_lim_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_lim_R-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.03933828789651085</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.06255105632191398</v>
+        <v>0.06255105632191399</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.03975409036655993</v>
@@ -685,7 +685,7 @@
         <v>0.02630135867796974</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.09758221152679217</v>
+        <v>0.09758221152679214</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02974011651474132</v>
@@ -697,7 +697,7 @@
         <v>0.03297825640503831</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.07914794452385843</v>
+        <v>0.0791479445238584</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01108865337281763</v>
+        <v>0.009082926239655098</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02603309552262837</v>
+        <v>0.02759647979353719</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02140624986777204</v>
+        <v>0.02324983720726474</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03347197036654951</v>
+        <v>0.03412667584780666</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02508791859832698</v>
+        <v>0.02513130823494398</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03912721453036755</v>
+        <v>0.03791514513174342</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01412781493597263</v>
+        <v>0.01264847993072994</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0613942565919908</v>
+        <v>0.05904070378532444</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01948642549345568</v>
+        <v>0.01969743174042866</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03705621174848121</v>
+        <v>0.03596610204899021</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02163146912105146</v>
+        <v>0.02112172922203938</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05298585988022145</v>
+        <v>0.05564594026968737</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03612296164417033</v>
+        <v>0.0355563541576463</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06482514410089872</v>
+        <v>0.06543532726228812</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0601357980331623</v>
+        <v>0.0622736831194987</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1057888544304238</v>
+        <v>0.1075631470823638</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06015761880567214</v>
+        <v>0.06164783364361215</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08389059929964986</v>
+        <v>0.08172037356100208</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04752544369299642</v>
+        <v>0.04486020606038723</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.149998733144577</v>
+        <v>0.1462571323619386</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.041754952852236</v>
+        <v>0.0421634239418201</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06555535921155908</v>
+        <v>0.06522552668336956</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04646330283913886</v>
+        <v>0.04700873888480079</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1059098408307211</v>
+        <v>0.1152701546833396</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02237659112181957</v>
+        <v>0.02251891103142591</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04512822124478856</v>
+        <v>0.04614711207767988</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02508823222045934</v>
+        <v>0.02440594662691052</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0752926867234954</v>
+        <v>0.07552327792330338</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01952529569428617</v>
+        <v>0.01888502032844814</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04346581902091978</v>
+        <v>0.04526323689989529</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.023200745480404</v>
+        <v>0.0226314704006978</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04811467070421635</v>
+        <v>0.0477086475168535</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02351534620209514</v>
+        <v>0.02498021428588846</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04849833808937176</v>
+        <v>0.04844585282157281</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02663441253280335</v>
+        <v>0.02729021686786093</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0679358204840847</v>
+        <v>0.06791289324391864</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04966907221164358</v>
+        <v>0.05050661777778956</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08300132730661205</v>
+        <v>0.0857465810016282</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05635648934616382</v>
+        <v>0.05507840361866098</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1518936155522318</v>
+        <v>0.1562378034226933</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04783193807956417</v>
+        <v>0.04704537744537288</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08921498474590384</v>
+        <v>0.08776164903049113</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05333882787929444</v>
+        <v>0.05466304192211754</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09497208071226701</v>
+        <v>0.09671486259362665</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04293382899000408</v>
+        <v>0.04232120651032859</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07688094090243001</v>
+        <v>0.07752293946047359</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04779907368447758</v>
+        <v>0.04814744683212639</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1137391895738064</v>
+        <v>0.1147224395486491</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.05437414531715105</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.08670960429283744</v>
+        <v>0.08670960429283746</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.0566694544420773</v>
@@ -969,7 +969,7 @@
         <v>0.04988856219326759</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07224778364654749</v>
+        <v>0.07224778364654752</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03374940159646544</v>
+        <v>0.03476820007993259</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05348967946216579</v>
+        <v>0.05497964483635057</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0301910147625589</v>
+        <v>0.03046540182846581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03902575619318895</v>
+        <v>0.04037369383119836</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04378506351093659</v>
+        <v>0.04459985661329802</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07448459538561661</v>
+        <v>0.07516986260019734</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0394379538540389</v>
+        <v>0.04043062957070701</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06872674594675655</v>
+        <v>0.0697539797064386</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04385322760241519</v>
+        <v>0.04377326835909182</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07202896083852116</v>
+        <v>0.06948482448938526</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03880899796639013</v>
+        <v>0.0388537941298712</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0603142524462901</v>
+        <v>0.05965589395734459</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07089486466170962</v>
+        <v>0.07337648451317288</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09709674804822978</v>
+        <v>0.09750165557864755</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06589958328527205</v>
+        <v>0.06285272622460249</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07827277630849103</v>
+        <v>0.07876366119395557</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08298543793742341</v>
+        <v>0.08336773933323104</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1213742137511656</v>
+        <v>0.120914269455869</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07421012991187047</v>
+        <v>0.07384446816602343</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1070833327074048</v>
+        <v>0.1078075806165901</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07145436017589492</v>
+        <v>0.07156632771185746</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1025209396902887</v>
+        <v>0.1008024131870672</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06233366734124834</v>
+        <v>0.06217423617671871</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08856396583019222</v>
+        <v>0.08753820873441374</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04876821903977039</v>
+        <v>0.05035912956194192</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07163015578689076</v>
+        <v>0.07243750066029619</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07443165751520517</v>
+        <v>0.07557423757919657</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1144718217474385</v>
+        <v>0.1160001952666824</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08190136912687294</v>
+        <v>0.08230660305901041</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09693983510558099</v>
+        <v>0.1008396880842239</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06064622954701933</v>
+        <v>0.06142042871361118</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1074505433582757</v>
+        <v>0.1053312639922997</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0711494495367659</v>
+        <v>0.07163133189014416</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09183746864118883</v>
+        <v>0.09207457541069128</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07420277236122462</v>
+        <v>0.07373563357967935</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1177378604351415</v>
+        <v>0.1173096459639387</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0920615599993727</v>
+        <v>0.09500388330039114</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1244305532409658</v>
+        <v>0.1216339595256917</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1237034557993363</v>
+        <v>0.1269454160163366</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1659555064915215</v>
+        <v>0.1682795784077171</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1343044815826462</v>
+        <v>0.1390423367904167</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1546428117221411</v>
+        <v>0.156811417479814</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1031491565445078</v>
+        <v>0.1057034833368306</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1464309875420616</v>
+        <v>0.1461070285008943</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1077032822629613</v>
+        <v>0.1071911822197964</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.130344880606236</v>
+        <v>0.132808443704058</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1059575491432222</v>
+        <v>0.1066641765954439</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1500894363894072</v>
+        <v>0.1500619555941288</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09268604052438205</v>
+        <v>0.09703291669291668</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1002515433767565</v>
+        <v>0.1015438857055487</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0798580726685121</v>
+        <v>0.07983732524344615</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1547227640970163</v>
+        <v>0.1541604370398844</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06970398436708658</v>
+        <v>0.07315244840776831</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1117918939644884</v>
+        <v>0.1120518951915795</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1139308446882757</v>
+        <v>0.1149820954500527</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1112457330385777</v>
+        <v>0.110932200734601</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09310057553428649</v>
+        <v>0.0908229051823847</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1144612415080125</v>
+        <v>0.1170622753016461</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1055803238546172</v>
+        <v>0.1051103768041096</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1396705362072233</v>
+        <v>0.140072935516371</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.160304349197335</v>
+        <v>0.1621948750534776</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1699580468766647</v>
+        <v>0.1672631923087152</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1390845917394078</v>
+        <v>0.1401713337854555</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2116997155540271</v>
+        <v>0.2163710265389408</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1313276128669389</v>
+        <v>0.1354702501106333</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1817061509124929</v>
+        <v>0.1858720264007375</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1845247545051062</v>
+        <v>0.1852642718630077</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1532480842325828</v>
+        <v>0.1526996201372642</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1354782511838017</v>
+        <v>0.1375947703177053</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1624766354503931</v>
+        <v>0.1646489162070826</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1548102342975581</v>
+        <v>0.1537844498144007</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1758563870596116</v>
+        <v>0.1766024298684252</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1212951593034312</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1796103621943172</v>
+        <v>0.1796103621943171</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1136665986239449</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08574162845981891</v>
+        <v>0.08401528721377617</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.111566634395251</v>
+        <v>0.1160618426960137</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06926014437424777</v>
+        <v>0.06914334701256333</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1352380887887979</v>
+        <v>0.1366553802538701</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.08223092769189819</v>
+        <v>0.08290173442254026</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1042731574605696</v>
+        <v>0.1033470323727665</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0890748508069014</v>
+        <v>0.08858541061773811</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1560529765973343</v>
+        <v>0.1532320986565675</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09086085388897283</v>
+        <v>0.09100556193566137</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1195594346285851</v>
+        <v>0.1198138292660853</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08712468951580479</v>
+        <v>0.08974605417776813</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1528322961067393</v>
+        <v>0.1541279567291882</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1588227297995485</v>
+        <v>0.1617877327504818</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2053040150641181</v>
+        <v>0.2069180836506797</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1368086539532778</v>
+        <v>0.1310995508532589</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2004068073328435</v>
+        <v>0.1966153665979023</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1466218139382999</v>
+        <v>0.1476273623420265</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1790280486399994</v>
+        <v>0.183243458921148</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.159742252597204</v>
+        <v>0.1591762128802167</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2069187027914618</v>
+        <v>0.2088561634575758</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1382709997207961</v>
+        <v>0.1404859205128133</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1760823783275732</v>
+        <v>0.1770970117938341</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1349971165730728</v>
+        <v>0.137861995349751</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1930815529959834</v>
+        <v>0.1947533524085416</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.1725965190249818</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3589715265846624</v>
+        <v>0.3589715265846623</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.164480608141619</v>
@@ -1513,7 +1513,7 @@
         <v>0.1397724559452255</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3286184126555964</v>
+        <v>0.3286184126555965</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1149870344571107</v>
+        <v>0.1091446535434611</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1543658887900134</v>
+        <v>0.1515214440096873</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06039520985319643</v>
+        <v>0.06021737187382003</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2412284714327508</v>
+        <v>0.2416088108381081</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1322448047082342</v>
+        <v>0.1294661837890983</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1792127791198174</v>
+        <v>0.1842638909668529</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1285730903780796</v>
+        <v>0.1308627218051492</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.32795015016056</v>
+        <v>0.3260680249147461</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1301387584975685</v>
+        <v>0.1357487127881217</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1837194608170108</v>
+        <v>0.1846829612289502</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1124512216683593</v>
+        <v>0.113311680137383</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3026267060942191</v>
+        <v>0.3043500212529603</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2112943429358403</v>
+        <v>0.2020090414738869</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2666021086839278</v>
+        <v>0.2680493546619813</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1280023068075749</v>
+        <v>0.1292713343877409</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3269449925530842</v>
+        <v>0.3259199169662345</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.220414634656957</v>
+        <v>0.2192161594028025</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2704487595433562</v>
+        <v>0.2713700525453033</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2140218643564326</v>
+        <v>0.2197014382746781</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.391388693426684</v>
+        <v>0.3944590099968439</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1976096288039964</v>
+        <v>0.1997151804403511</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2551037157908197</v>
+        <v>0.2541860920025827</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.173218788432211</v>
+        <v>0.1705714161487294</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.354190511817069</v>
+        <v>0.356065789758625</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05826097621438767</v>
+        <v>0.05858168807389409</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.08584840693053677</v>
+        <v>0.08486196156895577</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.06133246210174855</v>
+        <v>0.06144406259799352</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1243629726215608</v>
+        <v>0.1244809848605344</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.07132937077228231</v>
+        <v>0.07196130251483422</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1045243533825034</v>
+        <v>0.1036203553886634</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.07697927246256764</v>
+        <v>0.07797836776051914</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1353870123263746</v>
+        <v>0.1357164771962186</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0669753460100523</v>
+        <v>0.06711035356701867</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.09742210928709205</v>
+        <v>0.09865785065023695</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.07287204604590748</v>
+        <v>0.07223225538348983</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1330474081047858</v>
+        <v>0.1323767836660814</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07543451453477348</v>
+        <v>0.07549964350909698</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1064018071386423</v>
+        <v>0.1061510008502603</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.07893708787561635</v>
+        <v>0.07985018813113387</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1487415243536528</v>
+        <v>0.1475491876805594</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.09021640678459221</v>
+        <v>0.09128723488776636</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1264990469651132</v>
+        <v>0.1266921005266389</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.09722858783952383</v>
+        <v>0.09837571667271901</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1551417724226002</v>
+        <v>0.1549495295350229</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.08059379798453752</v>
+        <v>0.08036220624315714</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1135711967415785</v>
+        <v>0.1134357087856461</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.08619526979873124</v>
+        <v>0.08636485465795297</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1486237249953962</v>
+        <v>0.1482844585565282</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5468</v>
+        <v>4479</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11796</v>
+        <v>12504</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8894</v>
+        <v>9660</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13477</v>
+        <v>13741</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>11728</v>
+        <v>11749</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>16834</v>
+        <v>16312</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5591</v>
+        <v>5006</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>22256</v>
+        <v>21403</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18718</v>
+        <v>18921</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>32733</v>
+        <v>31770</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>17548</v>
+        <v>17135</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>40543</v>
+        <v>42578</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17811</v>
+        <v>17532</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29372</v>
+        <v>29649</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24985</v>
+        <v>25873</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42595</v>
+        <v>43310</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>28123</v>
+        <v>28820</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>36092</v>
+        <v>35159</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18808</v>
+        <v>17754</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>54376</v>
+        <v>53020</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>40108</v>
+        <v>40501</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>57907</v>
+        <v>57616</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>37692</v>
+        <v>38135</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>81038</v>
+        <v>88200</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>16390</v>
+        <v>16495</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>31007</v>
+        <v>31707</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14634</v>
+        <v>14236</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>35303</v>
+        <v>35412</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12213</v>
+        <v>11812</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>26484</v>
+        <v>27579</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>13008</v>
+        <v>12689</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>24064</v>
+        <v>23861</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>31933</v>
+        <v>33922</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>62873</v>
+        <v>62805</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>30469</v>
+        <v>31219</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>65832</v>
+        <v>65809</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>36382</v>
+        <v>36995</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>57029</v>
+        <v>58915</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32873</v>
+        <v>32128</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>71220</v>
+        <v>73257</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>29919</v>
+        <v>29427</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>54359</v>
+        <v>53474</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>29905</v>
+        <v>30648</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>47500</v>
+        <v>48371</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>58303</v>
+        <v>57471</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>99668</v>
+        <v>100500</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>54681</v>
+        <v>55079</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>110216</v>
+        <v>111169</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21525</v>
+        <v>22175</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36473</v>
+        <v>37489</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20168</v>
+        <v>20352</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>24096</v>
+        <v>24928</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>30111</v>
+        <v>30672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>52877</v>
+        <v>53363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>26006</v>
+        <v>26661</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>42657</v>
+        <v>43295</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>58127</v>
+        <v>58021</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>100247</v>
+        <v>96707</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>51517</v>
+        <v>51576</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>74677</v>
+        <v>73861</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>45216</v>
+        <v>46798</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>66207</v>
+        <v>66483</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>44023</v>
+        <v>41987</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>48329</v>
+        <v>48632</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>57070</v>
+        <v>57333</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>86164</v>
+        <v>85837</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>48935</v>
+        <v>48694</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>66465</v>
+        <v>66914</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>94712</v>
+        <v>94861</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>142685</v>
+        <v>140293</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>82744</v>
+        <v>82533</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>109653</v>
+        <v>108383</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>25185</v>
+        <v>26007</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>43954</v>
+        <v>44450</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>47840</v>
+        <v>48574</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>79772</v>
+        <v>80837</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>42048</v>
+        <v>42256</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>59734</v>
+        <v>62137</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>39302</v>
+        <v>39804</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>78352</v>
+        <v>76807</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>73272</v>
+        <v>73768</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>112944</v>
+        <v>113236</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>95780</v>
+        <v>95177</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>167902</v>
+        <v>167291</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>47543</v>
+        <v>49063</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>76354</v>
+        <v>74638</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>79509</v>
+        <v>81593</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>115650</v>
+        <v>117269</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>68952</v>
+        <v>71384</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>95291</v>
+        <v>96627</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>66846</v>
+        <v>68501</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>106777</v>
+        <v>106541</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>110916</v>
+        <v>110389</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>160302</v>
+        <v>163332</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>136769</v>
+        <v>137681</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>214037</v>
+        <v>213998</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>35764</v>
+        <v>37442</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>42937</v>
+        <v>43491</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>38072</v>
+        <v>38063</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>93766</v>
+        <v>93425</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>28159</v>
+        <v>29553</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>50060</v>
+        <v>50177</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>56473</v>
+        <v>56994</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>67279</v>
+        <v>67089</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>73536</v>
+        <v>71737</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>100279</v>
+        <v>102558</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>102670</v>
+        <v>102213</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>169114</v>
+        <v>169601</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>61856</v>
+        <v>62585</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>72793</v>
+        <v>71638</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>66309</v>
+        <v>66827</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>128295</v>
+        <v>131126</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>53055</v>
+        <v>54728</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>81368</v>
+        <v>83233</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>91465</v>
+        <v>91832</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>92681</v>
+        <v>92349</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>107008</v>
+        <v>108680</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>142345</v>
+        <v>144248</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>150543</v>
+        <v>149545</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>212927</v>
+        <v>213831</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>25015</v>
+        <v>24511</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>34562</v>
+        <v>35954</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>23156</v>
+        <v>23117</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>54852</v>
+        <v>55427</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>28200</v>
+        <v>28430</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>36912</v>
+        <v>36584</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>33649</v>
+        <v>33464</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>68414</v>
+        <v>67177</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>57668</v>
+        <v>57760</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>79361</v>
+        <v>79530</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>62041</v>
+        <v>63907</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>128990</v>
+        <v>130083</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>46336</v>
+        <v>47201</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>63600</v>
+        <v>64100</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>45739</v>
+        <v>43831</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>81284</v>
+        <v>79746</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>50282</v>
+        <v>50626</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>63375</v>
+        <v>64867</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>60345</v>
+        <v>60131</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>90713</v>
+        <v>91563</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>87758</v>
+        <v>89164</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>116880</v>
+        <v>117554</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>96130</v>
+        <v>98170</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>162960</v>
+        <v>164371</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>24134</v>
+        <v>22908</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>38568</v>
+        <v>37858</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>15521</v>
+        <v>15476</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>74403</v>
+        <v>74520</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>44158</v>
+        <v>43230</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>69710</v>
+        <v>71675</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>51451</v>
+        <v>52367</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>151933</v>
+        <v>151061</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>70768</v>
+        <v>73819</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>117366</v>
+        <v>117981</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>73899</v>
+        <v>74465</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>233541</v>
+        <v>234871</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>44347</v>
+        <v>42398</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>66611</v>
+        <v>66972</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>32896</v>
+        <v>33222</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>100840</v>
+        <v>100524</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>73598</v>
+        <v>73198</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>105199</v>
+        <v>105557</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>85645</v>
+        <v>87918</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>181323</v>
+        <v>182745</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>107458</v>
+        <v>108603</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>162968</v>
+        <v>162382</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>113834</v>
+        <v>112094</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>273333</v>
+        <v>274781</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>190354</v>
+        <v>191402</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>293912</v>
+        <v>290534</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>207158</v>
+        <v>207535</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>436003</v>
+        <v>436417</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>240731</v>
+        <v>242864</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>371732</v>
+        <v>368517</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>272314</v>
+        <v>275848</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>503503</v>
+        <v>504728</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>444863</v>
+        <v>445760</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>680009</v>
+        <v>688634</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>503919</v>
+        <v>499495</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>961252</v>
+        <v>956407</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>246465</v>
+        <v>246677</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>364279</v>
+        <v>363420</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>266620</v>
+        <v>269704</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>521472</v>
+        <v>517292</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>304473</v>
+        <v>308087</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>449883</v>
+        <v>450570</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>343946</v>
+        <v>348004</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>576971</v>
+        <v>576256</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>535319</v>
+        <v>533781</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>792730</v>
+        <v>791784</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>596051</v>
+        <v>597223</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1073789</v>
+        <v>1071338</v>
       </c>
     </row>
     <row r="36">
